--- a/Lab-Scale-Group65/Rå-Målinger.kinda-trash 3.xlsx
+++ b/Lab-Scale-Group65/Rå-Målinger.kinda-trash 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au608890_uni_au_dk/Documents/3. semester/GFV/GFV - LAB/Lab-Scale-Group65/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mk\Documents\GFV\GFV\Lab-Scale-Group65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{088EC05B-4339-4B59-89AA-86D0D1749F8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{4FAA9D55-6E07-4D0B-80A0-EFA17EEF903A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47667BA-B2F2-47C1-82C6-9150E3D042DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="15600" activeTab="3" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4581D2D8-8E95-4720-8671-B7B6BA209B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Indledende" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>hex</t>
   </si>
@@ -187,27 +187,6 @@
   </si>
   <si>
     <t>Liniær</t>
-  </si>
-  <si>
-    <t>Højeste</t>
-  </si>
-  <si>
-    <t>Gennemsnit</t>
-  </si>
-  <si>
-    <t>Laveste</t>
-  </si>
-  <si>
-    <t>diff fra gns høj</t>
-  </si>
-  <si>
-    <t>diff fra gns lav</t>
-  </si>
-  <si>
-    <t>Spænd</t>
-  </si>
-  <si>
-    <t>Spænd i procent</t>
   </si>
   <si>
     <t>ZD i proc</t>
@@ -385,7 +364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -467,7 +446,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -790,7 +769,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -828,7 +807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="592311200"/>
@@ -908,7 +887,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -940,7 +919,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="592315136"/>
@@ -982,7 +961,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1019,7 +998,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1095,7 +1074,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1711,7 +1690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783260272"/>
@@ -1774,7 +1753,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="783261584"/>
@@ -1816,7 +1795,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1853,7 +1832,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1865,669 +1844,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Præcision</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Præcision!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Spænd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Præcision!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Præcision!$S$2:$S$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>29.580000000000041</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.720000000000027</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.7199999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>103.54999999999927</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.519999999999527</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89F8-4F80-B207-5D4F3A865919}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="684562768"/>
-        <c:axId val="783285208"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Præcision!$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Spænd i procent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Præcision!$T$2:$T$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.9580000000000042</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98600000000000132</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65733333333332666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5887499999999819</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69039999999999047</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-89F8-4F80-B207-5D4F3A865919}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="680668720"/>
-        <c:axId val="680669704"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="684562768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Vægt i gram</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="783285208"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="783285208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Spænd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> fra højeste til laveste i gram</a:t>
-                </a:r>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="684562768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="680669704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Spænd i procent af</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> vægt</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="680668720"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="680668720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680669704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2592,7 +1908,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2679,7 +1995,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2822,7 +2138,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2976,7 +2292,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3014,7 +2330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1042312512"/>
@@ -3093,7 +2409,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3131,7 +2447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1245815744"/>
@@ -3183,7 +2499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3220,7 +2536,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3351,46 +2667,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4424,509 +3700,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5525,47 +4298,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2233967A-1533-4BA4-BC46-9B48B2EA6C72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5911,10 +4643,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -6760,10 +5492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED471317-6A77-4DBA-B1D9-1FC19328BFDC}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6773,7 +5505,7 @@
     <col min="18" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -6807,346 +5539,44 @@
       <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="B2">
-        <v>984.8</v>
+        <v>4189.95</v>
       </c>
       <c r="C2">
-        <v>989.73</v>
+        <v>4194.88</v>
       </c>
       <c r="D2">
-        <v>994.66</v>
+        <v>4140.6400000000003</v>
       </c>
       <c r="E2">
-        <v>994.66</v>
+        <v>4185.0200000000004</v>
       </c>
       <c r="F2">
-        <v>999.59</v>
+        <v>4189.95</v>
       </c>
       <c r="G2">
-        <v>994.66</v>
+        <v>4185.0200000000004</v>
       </c>
       <c r="H2">
-        <v>999.59</v>
+        <v>4244.1899999999996</v>
       </c>
       <c r="I2">
-        <v>989.73</v>
+        <v>4170.2299999999996</v>
       </c>
       <c r="J2">
-        <v>984.8</v>
+        <v>4175.16</v>
       </c>
       <c r="K2">
-        <v>970.01</v>
-      </c>
-      <c r="M2">
-        <f>MAX(B2:K2)</f>
-        <v>999.59</v>
-      </c>
-      <c r="N2">
-        <f>AVERAGE(B2:K2)</f>
-        <v>990.22299999999996</v>
-      </c>
-      <c r="O2">
-        <f>MIN(B2:K2)</f>
-        <v>970.01</v>
-      </c>
-      <c r="Q2">
-        <f>(M2-N2)</f>
-        <v>9.3670000000000755</v>
-      </c>
-      <c r="R2">
-        <f>(N2-O2)</f>
-        <v>20.212999999999965</v>
-      </c>
-      <c r="S2">
-        <f>Q2+R2</f>
-        <v>29.580000000000041</v>
-      </c>
-      <c r="T2">
-        <f>(S2/A2)*100</f>
-        <v>2.9580000000000042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>1985.79</v>
-      </c>
-      <c r="C3">
-        <v>1980.86</v>
-      </c>
-      <c r="D3">
-        <v>1980.86</v>
-      </c>
-      <c r="E3">
-        <v>1975.93</v>
-      </c>
-      <c r="F3">
-        <v>1975.93</v>
-      </c>
-      <c r="G3">
-        <v>1971</v>
-      </c>
-      <c r="H3">
-        <v>1966.07</v>
-      </c>
-      <c r="I3">
-        <v>1971</v>
-      </c>
-      <c r="J3">
-        <v>1975.93</v>
-      </c>
-      <c r="K3">
-        <v>1975.93</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M6" si="0">MAX(B3:K3)</f>
-        <v>1985.79</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N6" si="1">AVERAGE(B3:K3)</f>
-        <v>1975.9299999999998</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O6" si="2">MIN(B3:K3)</f>
-        <v>1966.07</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q6" si="3">(M3-N3)</f>
-        <v>9.8600000000001273</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R6" si="4">(N3-O3)</f>
-        <v>9.8599999999999</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S6" si="5">Q3+R3</f>
-        <v>19.720000000000027</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T6" si="6">(S3/A3)*100</f>
-        <v>0.98600000000000132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3000</v>
-      </c>
-      <c r="B4">
-        <v>3105.13</v>
-      </c>
-      <c r="C4">
-        <v>3100.2</v>
-      </c>
-      <c r="D4">
-        <v>3095.27</v>
-      </c>
-      <c r="E4">
-        <v>3105.13</v>
-      </c>
-      <c r="F4">
-        <v>3105.13</v>
-      </c>
-      <c r="G4">
-        <v>3095.27</v>
-      </c>
-      <c r="H4">
-        <v>3105.13</v>
-      </c>
-      <c r="I4">
-        <v>3105.13</v>
-      </c>
-      <c r="J4">
-        <v>3114.99</v>
-      </c>
-      <c r="K4">
-        <v>3105.13</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>3114.99</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>3103.6510000000007</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>3095.27</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>11.338999999999032</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="4"/>
-        <v>8.3810000000007676</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="5"/>
-        <v>19.7199999999998</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="6"/>
-        <v>0.65733333333332666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4000</v>
-      </c>
-      <c r="B5">
-        <v>4189.95</v>
-      </c>
-      <c r="C5">
-        <v>4194.88</v>
-      </c>
-      <c r="D5">
-        <v>4140.6400000000003</v>
-      </c>
-      <c r="E5">
-        <v>4185.0200000000004</v>
-      </c>
-      <c r="F5">
-        <v>4189.95</v>
-      </c>
-      <c r="G5">
-        <v>4185.0200000000004</v>
-      </c>
-      <c r="H5">
-        <v>4244.1899999999996</v>
-      </c>
-      <c r="I5">
-        <v>4170.2299999999996</v>
-      </c>
-      <c r="J5">
         <v>4175.16</v>
-      </c>
-      <c r="K5">
-        <v>4175.16</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>4244.1899999999996</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>4185.0200000000013</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>4140.6400000000003</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>59.169999999998254</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="4"/>
-        <v>44.380000000001019</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="5"/>
-        <v>103.54999999999927</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="6"/>
-        <v>2.5887499999999819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5000</v>
-      </c>
-      <c r="B6">
-        <v>5181.08</v>
-      </c>
-      <c r="C6">
-        <v>5205.74</v>
-      </c>
-      <c r="D6">
-        <v>5200.8100000000004</v>
-      </c>
-      <c r="E6">
-        <v>5200.8100000000004</v>
-      </c>
-      <c r="F6">
-        <v>5181.08</v>
-      </c>
-      <c r="G6">
-        <v>5171.22</v>
-      </c>
-      <c r="H6">
-        <v>5186.01</v>
-      </c>
-      <c r="I6">
-        <v>5200.8100000000004</v>
-      </c>
-      <c r="J6">
-        <v>5195.87</v>
-      </c>
-      <c r="K6">
-        <v>5190.9399999999996</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>5205.74</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>5191.4370000000008</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>5171.22</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>14.302999999998974</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="4"/>
-        <v>20.217000000000553</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="5"/>
-        <v>34.519999999999527</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="6"/>
-        <v>0.69039999999999047</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7154,7 +5584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E825DFF-AAE1-488E-AA51-4A5BEB3E0EDF}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F7"/>
     </sheetView>
   </sheetViews>
@@ -7170,48 +5600,48 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F1" t="str">
         <f>CONCATENATE($A1, " &amp; ",B1, " &amp; ",C1, " &amp; ",D1, " &amp; ",E1, " \\ \hline")</f>
         <v>Vægt [g] &amp; Måling 1 [g] &amp; Måling 2 [g] &amp; Måling 3 [g] &amp; Gennemsnit [g] \\ \hline</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K1" t="str">
         <f>CONCATENATE($A1, " &amp; ",G1, " &amp; ",H1, " &amp; ",I1, " &amp; ",J1, " \\ \hline")</f>
         <v>Vægt [g] &amp; Måling 1  [g]  &amp; Måling 2  [g] &amp; Måling 3  [g] &amp; Gennemsnit [g] \\ \hline</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -7326,7 +5756,7 @@
         <v>4.9300000000000637</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -7383,7 +5813,7 @@
         <v>83.829999999999814</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -7440,7 +5870,7 @@
         <v>18.076666666666824</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -7497,7 +5927,7 @@
         <v>41.096666666666806</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -7554,7 +5984,7 @@
         <v>-18.086666666666588</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -7575,10 +6005,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
